--- a/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-5,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 1,12</t>
+          <t>-13,17; 0,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 4,49</t>
+          <t>-8,95; 8,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 3,66</t>
+          <t>-15,08; -1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,25</t>
+          <t>-6,09; 11,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 4,74</t>
+          <t>-12,47; 1,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 2,86</t>
+          <t>-11,81; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,0</t>
+          <t>-7,32; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,82</t>
+          <t>-7,26; 3,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 2,23</t>
+          <t>-11,11; -1,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-74,53%</t>
+          <t>-76,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,08%</t>
+          <t>-61,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-81,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,41%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,75%</t>
+          <t>-26,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>-92,75%</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 295,93</t>
+          <t>-100,0; 380,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,66; 163,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-90,87; 71,98</t>
+          <t>-84,69; 143,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 158,85</t>
+          <t>-81,79; 200,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 81,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 0,01</t>
+          <t>-11,68; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 8,64</t>
+          <t>-10,29; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -1,66</t>
+          <t>-9,51; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 11,24</t>
+          <t>-6,74; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 1,62</t>
+          <t>-7,82; 4,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 0,79</t>
+          <t>-8,58; 2,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,0</t>
+          <t>-7,71; 1,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,63</t>
+          <t>-7,53; 2,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -1,89</t>
+          <t>-6,8; 2,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-76,66%</t>
+          <t>-74,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-44,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>-19,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-61,99%</t>
+          <t>-49,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-81,13%</t>
+          <t>-46,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,7%</t>
+          <t>-53,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>-46,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-92,75%</t>
+          <t>-38,09%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 380,73</t>
+          <t>-100,0; 295,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-86,66; 163,04</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-84,69; 143,48</t>
+          <t>-90,87; 71,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 200,05</t>
+          <t>-100,0; 158,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,27; 81,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 7,85</t>
+          <t>0,73; 22,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 4,63</t>
+          <t>-2,4; 18,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 5,61</t>
+          <t>-2,63; 20,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 0,83</t>
+          <t>-17,63; 0,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -1,23</t>
+          <t>-17,35; 1,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 5,17</t>
+          <t>-14,94; 9,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,55</t>
+          <t>-5,27; 8,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -0,68</t>
+          <t>-6,97; 6,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 1,98</t>
+          <t>-6,56; 11,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>386,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,66%</t>
+          <t>228,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>229,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-62,91%</t>
+          <t>-79,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-76,79%</t>
+          <t>-65,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,0%</t>
+          <t>-48,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-62,03%</t>
+          <t>-7,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-47,37%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 207,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-90,72; 188,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,93; 214,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-93,61; 65,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,62</t>
+          <t>-100,0; 111,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,45; 32,53</t>
+          <t>-60,79; 386,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,03; 3,02</t>
+          <t>-75,02; 307,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,51; 48,86</t>
+          <t>-78,8; 406,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-7,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 0,01</t>
+          <t>-21,9; -6,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 8,64</t>
+          <t>-16,38; 2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -1,66</t>
+          <t>-21,36; -5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 11,24</t>
+          <t>-7,81; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 1,62</t>
+          <t>-10,7; 1,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 0,79</t>
+          <t>-12,38; 0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,0</t>
+          <t>-12,64; -2,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,63</t>
+          <t>-11,04; -0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -1,89</t>
+          <t>-13,57; -3,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-76,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-57,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-93,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>-8,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-61,99%</t>
+          <t>-64,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-81,13%</t>
+          <t>-79,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,7%</t>
+          <t>-78,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>-60,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-92,75%</t>
+          <t>-89,97%</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 380,73</t>
+          <t>-100,0; 57,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -22,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,69; 143,48</t>
+          <t>-95,39; -37,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 200,05</t>
+          <t>-89,88; 15,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -52,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-0,8</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,87</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 1,12</t>
+          <t>-6,03; 9,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 4,49</t>
+          <t>-11,64; 3,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 3,66</t>
+          <t>-11,43; 3,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,25</t>
+          <t>-3,1; 18,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 4,74</t>
+          <t>-16,17; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 2,86</t>
+          <t>-9,71; 4,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,0</t>
+          <t>-2,54; 10,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,82</t>
+          <t>-8,55; 0,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 2,23</t>
+          <t>-6,7; 3,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-74,53%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-39,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>-35,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>241,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-19,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-53,41%</t>
+          <t>126,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,75%</t>
+          <t>-70,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>-28,05%</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 295,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,66; 163,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,87; 71,98</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 158,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 81,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-3,43</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-3,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,97</t>
+          <t>-13,29; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 1,96</t>
+          <t>-10,26; 12,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,07</t>
+          <t>-12,09; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,86</t>
+          <t>-11,5; 4,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,57</t>
+          <t>-10,53; 7,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -0,79</t>
+          <t>-14,24; 0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,59</t>
+          <t>-10,16; 2,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -0,17</t>
+          <t>-7,72; 6,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -1,32</t>
+          <t>-9,91; 1,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-47,16%</t>
+          <t>-66,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>-10,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-54,45%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,2%</t>
+          <t>-57,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-67,84%</t>
+          <t>-41,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-68,49%</t>
+          <t>-76,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>-62,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-48,01%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-60,36%</t>
+          <t>-54,37%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 34,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,28; 48,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 9,07</t>
+          <t>-90,34; 203,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 90,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-93,58; -1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-93,91; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,06; 15,17</t>
+          <t>-100,0; 523,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,82; -2,17</t>
+          <t>-83,04; 324,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,27; -23,99</t>
+          <t>-90,05; 61,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-3,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 1,11</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 2,42</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 0,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 2,62</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; -0,7</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; -0,54</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 0,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; -0,2</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; -1,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-47,16%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-30,72%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-54,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-23,2%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-67,84%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-68,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-37,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-48,01%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-60,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-78,19; 29,18</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-71,48; 53,78</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-82,56; 16,96</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-70,18; 83,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-92,71; 6,07</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-93,79; 4,51</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-67,41; 12,97</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-73,27; 1,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-80,88; -24,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 22,17</t>
+          <t>0,01; 22,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 18,33</t>
+          <t>-2,44; 17,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 20,57</t>
+          <t>-3,05; 20,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 0,24</t>
+          <t>-18,61; 0,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 1,57</t>
+          <t>-16,41; 1,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 9,84</t>
+          <t>-15,04; 10,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 8,59</t>
+          <t>-6,09; 8,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,81</t>
+          <t>-7,29; 6,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 11,15</t>
+          <t>-6,43; 9,44</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 111,15</t>
+          <t>-100,0; 132,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 386,72</t>
+          <t>-67,74; 307,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 307,28</t>
+          <t>-78,26; 290,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,8; 406,77</t>
+          <t>-82,65; 339,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -6,43</t>
+          <t>-21,64; -6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 2,58</t>
+          <t>-16,89; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -5,16</t>
+          <t>-21,18; -5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 5,88</t>
+          <t>-8,99; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 1,98</t>
+          <t>-9,69; 1,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 0,37</t>
+          <t>-11,43; 0,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -2,4</t>
+          <t>-12,53; -2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -0,15</t>
+          <t>-11,24; 0,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -3,6</t>
+          <t>-14,33; -3,91</t>
         </is>
       </c>
     </row>
@@ -1012,17 +1012,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,8</t>
+          <t>-100,0; 34,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,49</t>
+          <t>-100,0; -39,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-95,39; -37,19</t>
+          <t>-95,58; -34,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 15,04</t>
+          <t>-90,58; 23,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,46</t>
+          <t>-100,0; -53,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 9,6</t>
+          <t>-5,96; 9,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 3,54</t>
+          <t>-11,72; 3,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 3,78</t>
+          <t>-10,48; 3,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 18,23</t>
+          <t>-3,32; 17,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 0,0</t>
+          <t>-13,98; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 4,6</t>
+          <t>-10,32; 4,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 10,2</t>
+          <t>-3,02; 10,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,86</t>
+          <t>-8,57; 1,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,19</t>
+          <t>-7,15; 3,06</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 2,58</t>
+          <t>-12,79; 3,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 12,38</t>
+          <t>-10,63; 12,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 4,49</t>
+          <t>-10,63; 4,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 4,69</t>
+          <t>-11,98; 3,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 7,37</t>
+          <t>-10,48; 8,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 0,66</t>
+          <t>-14,93; 0,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 2,77</t>
+          <t>-10,25; 1,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,47</t>
+          <t>-8,52; 5,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 1,14</t>
+          <t>-9,31; 1,42</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,34; 203,91</t>
+          <t>-91,43; 294,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 523,18</t>
+          <t>-100,0; 131,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,04; 324,61</t>
+          <t>-100,0; 251,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-90,05; 61,24</t>
+          <t>-89,58; 75,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,11</t>
+          <t>-7,96; 0,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,42</t>
+          <t>-7,28; 2,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,12</t>
+          <t>-7,97; -0,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,62</t>
+          <t>-5,55; 2,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,7</t>
+          <t>-8,5; -0,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -0,54</t>
+          <t>-8,15; -0,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,55</t>
+          <t>-5,65; 0,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,2</t>
+          <t>-6,23; -0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -1,39</t>
+          <t>-7,12; -1,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 29,18</t>
+          <t>-78,17; 42,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 53,78</t>
+          <t>-73,66; 58,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 16,96</t>
+          <t>-79,45; 6,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 83,77</t>
+          <t>-69,52; 89,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,71; 6,07</t>
+          <t>-93,36; 25,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-93,79; 4,51</t>
+          <t>-92,66; 19,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 12,97</t>
+          <t>-66,49; 15,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-73,27; 1,13</t>
+          <t>-74,8; -1,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,88; -24,1</t>
+          <t>-81,18; -21,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-7,63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-6,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>9,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>5,59</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,27</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 22,23</t>
+          <t>-18,47; 0,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 17,81</t>
+          <t>-17,63; 1,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 20,22</t>
+          <t>-14,73; 9,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 0,23</t>
+          <t>0,25; 20,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 1,96</t>
+          <t>-2,49; 17,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 10,8</t>
+          <t>-2,48; 22,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 8,19</t>
+          <t>-5,45; 7,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 6,18</t>
+          <t>-6,61; 7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 9,44</t>
+          <t>-6,12; 11,39</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-79,22%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-65,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-50,24%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>386,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>228,25%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>229,41%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-79,22%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-65,06%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,86%</t>
+          <t>252,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 132,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 307,39</t>
+          <t>-66,11; 354,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 290,58</t>
+          <t>-75,68; 419,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 339,51</t>
+          <t>-83,27; 416,23</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-12,14</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-7,01</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-11,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>-7,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -6,44</t>
+          <t>-7,51; 5,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 1,16</t>
+          <t>-9,63; 1,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -5,25</t>
+          <t>-11,03; 0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 5,39</t>
+          <t>-20,55; -6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 1,92</t>
+          <t>-15,86; 1,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,32</t>
+          <t>-20,09; -4,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -2,49</t>
+          <t>-13,02; -2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 0,33</t>
+          <t>-11,56; 0,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -3,91</t>
+          <t>-13,94; -3,97</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-8,77%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-64,61%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-80,84%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-57,76%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-93,43%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,77%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-64,61%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-79,71%</t>
+          <t>-93,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-89,97%</t>
+          <t>-90,62%</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,46; 44,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -41,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-95,58; -34,54</t>
+          <t>-94,85; -31,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,58; 23,13</t>
+          <t>-91,52; 23,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -53,13</t>
+          <t>-100,0; -51,37</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,14</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 9,93</t>
+          <t>-3,26; 17,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 3,59</t>
+          <t>-16,18; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 3,89</t>
+          <t>-8,71; 5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 17,81</t>
+          <t>-5,94; 9,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 0,0</t>
+          <t>-11,71; 3,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 4,56</t>
+          <t>-11,95; 3,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 10,71</t>
+          <t>-3,02; 11,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,09</t>
+          <t>-9,21; 0,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,06</t>
+          <t>-6,54; 3,4</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>241,16%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>9,1%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-39,08%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-35,02%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>241,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,65%</t>
+          <t>-35,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,05%</t>
+          <t>-24,14%</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,62; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-4,81</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,75</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,43</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-4,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 3,3</t>
+          <t>-11,76; 4,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 12,38</t>
+          <t>-10,87; 8,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,86</t>
+          <t>-15,91; -0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 3,77</t>
+          <t>-13,46; 3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 8,16</t>
+          <t>-10,78; 13,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 0,69</t>
+          <t>-12,89; 4,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 1,78</t>
+          <t>-10,27; 1,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,88</t>
+          <t>-7,82; 6,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,42</t>
+          <t>-10,3; 0,52</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-57,89%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-41,52%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-83,39%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-66,32%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-10,31%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-36,94%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-57,89%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-41,52%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-76,75%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-54,37%</t>
+          <t>-61,2%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,43; 294,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,06; 210,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,33</t>
+          <t>-100,0; 109,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 251,21</t>
+          <t>-100,0; 309,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,58; 75,9</t>
+          <t>-91,29; 31,24</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-3,43</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-2,23</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,89</t>
+          <t>-5,81; 2,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,59</t>
+          <t>-8,3; -0,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,09</t>
+          <t>-8,28; -0,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 2,7</t>
+          <t>-7,95; 0,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,44</t>
+          <t>-7,62; 1,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -0,47</t>
+          <t>-8,5; 0,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,61</t>
+          <t>-5,39; 0,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -0,25</t>
+          <t>-6,15; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -1,58</t>
+          <t>-7,04; -1,42</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-23,2%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-67,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-71,93%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-47,16%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-30,72%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-54,45%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-23,2%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-67,84%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-68,49%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-60,36%</t>
+          <t>-62,15%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,17; 42,36</t>
+          <t>-69,25; 90,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 58,34</t>
+          <t>-93,58; -1,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 6,54</t>
+          <t>-94,44; -0,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 89,61</t>
+          <t>-81,08; 34,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-93,36; 25,28</t>
+          <t>-75,28; 48,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,66; 19,41</t>
+          <t>-83,19; 10,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 15,22</t>
+          <t>-64,06; 15,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -1,47</t>
+          <t>-74,82; -2,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,18; -21,25</t>
+          <t>-82,26; -27,05</t>
         </is>
       </c>
     </row>
